--- a/Output Segunda Division.xlsx
+++ b/Output Segunda Division.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="141">
   <si>
     <t>Team</t>
   </si>
@@ -228,22 +228,22 @@
     <t>53</t>
   </si>
   <si>
+    <t>52</t>
+  </si>
+  <si>
     <t>51</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>43</t>
+    <t>48</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>44</t>
   </si>
   <si>
     <t>40</t>
@@ -255,6 +255,9 @@
     <t>37</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>35</t>
   </si>
   <si>
@@ -264,16 +267,25 @@
     <t>33</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>28</t>
+    <t>24</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
   <si>
     <t>27</t>
@@ -282,31 +294,22 @@
     <t>23</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
-    <t>['Huesca', 'CD Lugo']</t>
+    <t>['MirandÃ©s', 'Huesca', 'CD Lugo']</t>
+  </si>
+  <si>
+    <t>['Racing', 'MirandÃ©s', 'Eibar', 'Real Zaragoza', 'UD Ibiza']</t>
   </si>
   <si>
     <t>['Burgos', 'FC Cartagena', 'FC Andorra']</t>
   </si>
   <si>
-    <t>['CD Lugo']</t>
-  </si>
-  <si>
-    <t>['Racing', 'MirandÃ©s', 'Eibar', 'Real Zaragoza']</t>
+    <t>['Ponferradina', 'CD Lugo']</t>
   </si>
   <si>
     <t>['UD Ibiza', 'FC Andorra', 'Villarreal B', 'Tenerife']</t>
@@ -324,33 +327,33 @@
     <t>['Real Sporting']</t>
   </si>
   <si>
-    <t>['Albacete', 'MirandÃ©s']</t>
+    <t>['FC Cartagena', 'Albacete', 'MirandÃ©s']</t>
+  </si>
+  <si>
+    <t>['CD Lugo', 'Real Oviedo', 'Racing']</t>
   </si>
   <si>
     <t>['MirandÃ©s']</t>
   </si>
   <si>
-    <t>['CD Lugo', 'Real Oviedo']</t>
-  </si>
-  <si>
     <t>['MÃ¡laga']</t>
   </si>
   <si>
     <t>['Real Zaragoza']</t>
   </si>
   <si>
+    <t>['Villarreal B']</t>
+  </si>
+  <si>
     <t>['FC Andorra']</t>
   </si>
   <si>
-    <t>['Villarreal B']</t>
+    <t>['LeganÃ©s']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['LeganÃ©s']</t>
-  </si>
-  <si>
     <t>['Deportivo', 'FC Cartagena']</t>
   </si>
   <si>
@@ -360,58 +363,79 @@
     <t>['Levante']</t>
   </si>
   <si>
+    <t>['Tenerife', 'Levante']</t>
+  </si>
+  <si>
     <t>['Racing']</t>
   </si>
   <si>
     <t>['Granada']</t>
   </si>
   <si>
+    <t>['Granada', 'MirandÃ©s']</t>
+  </si>
+  <si>
     <t>['Las Palmas']</t>
   </si>
   <si>
-    <t>['Granada', 'MirandÃ©s']</t>
+    <t>['Albacete', 'Granada', 'Real Zaragoza', 'Levante']</t>
   </si>
   <si>
     <t>['Villarreal B', 'Burgos', 'FC Cartagena']</t>
   </si>
   <si>
-    <t>['Real Sporting', 'Deportivo']</t>
-  </si>
-  <si>
-    <t>['Deportivo', 'Huesca', 'Tenerife']</t>
-  </si>
-  <si>
-    <t>['Albacete', 'Granada', 'Real Zaragoza', 'Levante']</t>
-  </si>
-  <si>
-    <t>['Deportivo']</t>
+    <t>['LeganÃ©s', 'FC Andorra']</t>
+  </si>
+  <si>
+    <t>['Las Palmas', 'Deportivo', 'Huesca', 'Tenerife']</t>
+  </si>
+  <si>
+    <t>['Real Sporting', 'Deportivo', 'MÃ¡laga']</t>
+  </si>
+  <si>
+    <t>['Deportivo', 'Villarreal B']</t>
+  </si>
+  <si>
+    <t>['Eibar']</t>
   </si>
   <si>
     <t>['Real Oviedo', 'Albacete']</t>
   </si>
   <si>
-    <t>['Albacete', 'Las Palmas', 'Eibar']</t>
+    <t>['Villarreal B', 'Albacete', 'Las Palmas', 'Eibar']</t>
+  </si>
+  <si>
+    <t>['Granada', 'Deportivo']</t>
   </si>
   <si>
     <t>['Burgos', 'LeganÃ©s']</t>
   </si>
   <si>
+    <t>['LeganÃ©s', 'Ponferradina']</t>
+  </si>
+  <si>
+    <t>['Huesca']</t>
+  </si>
+  <si>
+    <t>['Burgos']</t>
+  </si>
+  <si>
+    <t>['MÃ¡laga', 'Las Palmas', 'Albacete']</t>
+  </si>
+  <si>
+    <t>['UD Ibiza']</t>
+  </si>
+  <si>
+    <t>['Levante', 'Eibar', 'Las Palmas']</t>
+  </si>
+  <si>
+    <t>['Real Oviedo', 'Real Sporting', 'Granada']</t>
+  </si>
+  <si>
+    <t>['MÃ¡laga', 'Huesca']</t>
+  </si>
+  <si>
     <t>['Ponferradina']</t>
-  </si>
-  <si>
-    <t>['MÃ¡laga', 'Las Palmas']</t>
-  </si>
-  <si>
-    <t>['UD Ibiza']</t>
-  </si>
-  <si>
-    <t>['Eibar', 'Las Palmas']</t>
-  </si>
-  <si>
-    <t>['Real Oviedo', 'Real Sporting']</t>
-  </si>
-  <si>
-    <t>['MÃ¡laga', 'Huesca']</t>
   </si>
   <si>
     <t>['Tenerife', 'Ponferradina']</t>
@@ -567,13 +591,13 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
@@ -582,16 +606,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.25</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -656,10 +680,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -674,16 +698,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -837,10 +861,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -855,16 +879,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.25</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,10 +953,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -950,13 +974,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,13 +1134,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1128,16 +1152,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,7 +1229,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -1220,16 +1244,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.25</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1449,10 +1473,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3</c:v>
@@ -1461,19 +1485,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -1577,61 +1601,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -1735,40 +1759,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2</c:v>
@@ -1777,22 +1801,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1893,22 +1917,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>23</c:v>
@@ -1923,34 +1947,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2051,25 +2075,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2081,31 +2105,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -2209,25 +2233,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2239,10 +2263,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3</c:v>
@@ -2257,13 +2281,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.75</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2</c:v>
@@ -2367,25 +2391,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2397,10 +2421,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -2415,13 +2439,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1</c:v>
@@ -2558,13 +2582,13 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2</c:v>
@@ -2573,16 +2597,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.25</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2713,13 +2737,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -2731,16 +2755,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.5</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2871,7 +2895,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3</c:v>
@@ -2889,13 +2913,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.75</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.75</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>1</c:v>
@@ -2999,64 +3023,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3157,25 +3181,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3190,31 +3214,31 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3315,25 +3339,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3345,10 +3369,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -3363,16 +3387,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3473,25 +3497,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3503,10 +3527,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -3515,22 +3539,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.5</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3634,22 +3658,22 @@
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3664,7 +3688,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -3673,22 +3697,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3819,10 +3843,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2</c:v>
@@ -3837,16 +3861,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.75</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3947,64 +3971,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4108,7 +4132,7 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7</c:v>
@@ -4117,13 +4141,13 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4135,10 +4159,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2</c:v>
@@ -4156,13 +4180,13 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4296,7 +4320,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -4311,16 +4335,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4421,13 +4445,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>10</c:v>
@@ -4436,7 +4460,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>33</c:v>
@@ -4451,13 +4475,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -4469,16 +4493,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.75</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4609,13 +4633,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -4627,16 +4651,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.75</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4740,7 +4764,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
@@ -4749,13 +4773,13 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4767,10 +4791,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2</c:v>
@@ -4779,22 +4803,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4948,13 +4972,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4966,16 +4990,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.75</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5040,7 +5064,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
@@ -5058,16 +5082,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5221,13 +5245,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -5239,16 +5263,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5313,10 +5337,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -5325,19 +5349,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -5497,7 +5521,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -5512,16 +5536,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5586,10 +5610,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -5598,19 +5622,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -5767,7 +5791,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -5785,13 +5809,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -5859,10 +5883,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -5877,16 +5901,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6040,10 +6064,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -6058,13 +6082,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -6132,31 +6156,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -6313,10 +6337,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4</c:v>
@@ -6325,19 +6349,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -6405,10 +6429,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -6417,22 +6441,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6586,13 +6610,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -6601,19 +6625,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.25</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6681,7 +6705,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -6696,16 +6720,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,10 +6883,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -6877,13 +6901,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -6951,10 +6975,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -6969,13 +6993,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
@@ -7821,13 +7845,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -7836,16 +7860,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="I2">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7853,10 +7877,10 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -7871,16 +7895,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -7940,10 +7964,10 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -7958,16 +7982,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I2">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7975,10 +7999,10 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -7996,13 +8020,13 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -8062,13 +8086,13 @@
         <v>31</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -8080,16 +8104,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="I2">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8100,7 +8124,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -8115,16 +8139,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I3">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -8223,7 +8247,7 @@
         <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
         <v>57</v>
@@ -8235,25 +8259,25 @@
         <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
         <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>3</v>
@@ -8262,19 +8286,19 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -8285,64 +8309,64 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
       </c>
       <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
         <v>82</v>
       </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L3" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="M3">
+        <v>16</v>
+      </c>
+      <c r="N3">
         <v>4</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
       <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
         <v>2</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="T3">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="U3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -8353,43 +8377,43 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s">
         <v>108</v>
       </c>
       <c r="L4" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O4">
         <v>2</v>
@@ -8398,22 +8422,22 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="T4">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -8421,7 +8445,7 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -8433,55 +8457,55 @@
         <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
         <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
         <v>2</v>
       </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
       <c r="P5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="T5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -8501,7 +8525,7 @@
         <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
         <v>51</v>
@@ -8510,43 +8534,43 @@
         <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="M6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <v>2</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U6">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -8569,7 +8593,7 @@
         <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
         <v>49</v>
@@ -8578,22 +8602,22 @@
         <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L7" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O7">
         <v>3</v>
@@ -8608,13 +8632,13 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T7">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="U7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V7">
         <v>2</v>
@@ -8637,31 +8661,31 @@
         <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
         <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -8676,13 +8700,13 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="T8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V8">
         <v>1</v>
@@ -8699,7 +8723,7 @@
         <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
         <v>54</v>
@@ -8711,31 +8735,31 @@
         <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="M9">
         <v>8</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O9">
         <v>3</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -8744,16 +8768,16 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="T9">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="U9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -8767,7 +8791,7 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
         <v>53</v>
@@ -8779,28 +8803,28 @@
         <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
         <v>2</v>
-      </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -8812,16 +8836,16 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="T10">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="U10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V10">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -8835,7 +8859,7 @@
         <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
         <v>52</v>
@@ -8847,22 +8871,22 @@
         <v>52</v>
       </c>
       <c r="H11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" t="s">
         <v>83</v>
       </c>
-      <c r="I11" t="s">
-        <v>82</v>
-      </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -8880,13 +8904,13 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="T11">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="U11">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="V11">
         <v>1</v>
@@ -8897,67 +8921,67 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
         <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
         <v>54</v>
       </c>
-      <c r="G12" t="s">
-        <v>51</v>
-      </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="T12">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="U12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -8965,67 +8989,67 @@
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="M13">
         <v>4</v>
       </c>
       <c r="N13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
+        <v>0.8</v>
+      </c>
+      <c r="T13">
+        <v>0.8</v>
+      </c>
+      <c r="U13">
+        <v>12</v>
+      </c>
+      <c r="V13">
         <v>1</v>
-      </c>
-      <c r="T13">
-        <v>1.25</v>
-      </c>
-      <c r="U13">
-        <v>3</v>
-      </c>
-      <c r="V13">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -9033,43 +9057,43 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>77</v>
       </c>
       <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" t="s">
         <v>82</v>
       </c>
-      <c r="E14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" t="s">
-        <v>84</v>
-      </c>
       <c r="J14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -9084,16 +9108,16 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="T14">
         <v>1</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V14">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -9101,7 +9125,7 @@
         <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
         <v>78</v>
@@ -9110,34 +9134,34 @@
         <v>83</v>
       </c>
       <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
         <v>50</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>55</v>
       </c>
-      <c r="G15" t="s">
-        <v>51</v>
-      </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s">
         <v>103</v>
       </c>
       <c r="K15" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="L15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -9146,22 +9170,22 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="T15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V15">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -9169,43 +9193,43 @@
         <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
         <v>52</v>
       </c>
-      <c r="G16" t="s">
-        <v>53</v>
-      </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
         <v>104</v>
       </c>
       <c r="K16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L16" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M16">
         <v>2</v>
       </c>
       <c r="N16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -9214,22 +9238,22 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="T16">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V16">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -9240,10 +9264,10 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -9255,25 +9279,25 @@
         <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s">
         <v>105</v>
       </c>
       <c r="K17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O17">
         <v>2</v>
@@ -9288,16 +9312,16 @@
         <v>1</v>
       </c>
       <c r="S17">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="T17">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="U17">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="V17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -9305,7 +9329,7 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>79</v>
@@ -9314,58 +9338,58 @@
         <v>83</v>
       </c>
       <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
         <v>52</v>
       </c>
-      <c r="F18" t="s">
-        <v>48</v>
-      </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s">
         <v>106</v>
       </c>
       <c r="K18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L18" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T18">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V18">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -9388,28 +9412,28 @@
         <v>52</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s">
         <v>107</v>
       </c>
       <c r="K19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L19" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O19">
         <v>2</v>
@@ -9427,13 +9451,13 @@
         <v>1</v>
       </c>
       <c r="T19">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="U19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -9447,7 +9471,7 @@
         <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
         <v>49</v>
@@ -9459,25 +9483,25 @@
         <v>54</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K20" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="L20" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="M20">
         <v>2</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -9492,16 +9516,16 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="T20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -9512,13 +9536,13 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
         <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
         <v>53</v>
@@ -9527,28 +9551,28 @@
         <v>56</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="I21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K21" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L21" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>5</v>
       </c>
       <c r="O21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -9560,16 +9584,16 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="T21">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V21">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -9583,7 +9607,7 @@
         <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
         <v>48</v>
@@ -9598,25 +9622,25 @@
         <v>62</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L22" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -9628,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T22">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U22">
         <v>0</v>
       </c>
       <c r="V22">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -9660,28 +9684,28 @@
         <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J23" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K23" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="L23" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N23">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O23">
         <v>2</v>
@@ -9690,22 +9714,22 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -9765,13 +9789,13 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -9783,16 +9807,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I2">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -9800,7 +9824,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -9818,16 +9842,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I3">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -9887,13 +9911,13 @@
         <v>15</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
         <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -9905,16 +9929,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -9922,10 +9946,10 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -9934,19 +9958,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -10012,7 +10036,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -10027,16 +10051,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -10044,10 +10068,10 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -10056,19 +10080,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I3">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -10131,7 +10155,7 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -10149,13 +10173,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="I2">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -10166,10 +10190,10 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -10184,16 +10208,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="I3">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -10253,10 +10277,10 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -10271,13 +10295,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="I2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -10288,31 +10312,31 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J3">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -10375,10 +10399,10 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -10387,19 +10411,19 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -10410,10 +10434,10 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -10422,22 +10446,22 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -10497,13 +10521,13 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -10512,19 +10536,19 @@
         <v>2</v>
       </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1.25</v>
-      </c>
       <c r="J2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -10535,7 +10559,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -10550,16 +10574,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -10619,10 +10643,10 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -10637,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -10654,10 +10678,10 @@
         <v>28</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -10672,13 +10696,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="I3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K3">
         <v>2</v>

--- a/Output Segunda Division.xlsx
+++ b/Output Segunda Division.xlsx
@@ -7,17 +7,17 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="FC Cartagena vs Real Oviedo" sheetId="1" r:id="rId1"/>
-    <sheet name="CD Lugo vs Eibar" sheetId="2" r:id="rId2"/>
-    <sheet name="LeganÃ©s vs Las Palmas" sheetId="3" r:id="rId3"/>
-    <sheet name="Ponferradina vs Levante" sheetId="4" r:id="rId4"/>
-    <sheet name="Tenerife vs MirandÃ©s" sheetId="5" r:id="rId5"/>
-    <sheet name="Huesca vs Granada" sheetId="6" r:id="rId6"/>
-    <sheet name="Deportivo vs UD Ibiza" sheetId="7" r:id="rId7"/>
-    <sheet name="FC Andorra vs Real Sporting" sheetId="8" r:id="rId8"/>
-    <sheet name="Burgos vs Albacete" sheetId="9" r:id="rId9"/>
-    <sheet name="Villarreal B vs Racing" sheetId="10" r:id="rId10"/>
-    <sheet name="MÃ¡laga vs Real Zaragoza" sheetId="11" r:id="rId11"/>
+    <sheet name="Eibar vs Villarreal B" sheetId="1" r:id="rId1"/>
+    <sheet name="Deportivo vs FC Cartagena" sheetId="2" r:id="rId2"/>
+    <sheet name="Racing vs FC Andorra" sheetId="3" r:id="rId3"/>
+    <sheet name="Real Sporting vs Tenerife" sheetId="4" r:id="rId4"/>
+    <sheet name="MirandÃ©s vs LeganÃ©s" sheetId="5" r:id="rId5"/>
+    <sheet name="UD Ibiza vs Huesca" sheetId="6" r:id="rId6"/>
+    <sheet name="Levante vs CD Lugo" sheetId="7" r:id="rId7"/>
+    <sheet name="Real Zaragoza vs Burgos" sheetId="8" r:id="rId8"/>
+    <sheet name="Las Palmas vs Ponferradina" sheetId="9" r:id="rId9"/>
+    <sheet name="Real Oviedo vs Albacete" sheetId="10" r:id="rId10"/>
+    <sheet name="Granada vs MÃ¡laga" sheetId="11" r:id="rId11"/>
     <sheet name="Data Raw Segunda" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -60,70 +60,70 @@
     <t>Weakness Points</t>
   </si>
   <si>
+    <t>Eibar</t>
+  </si>
+  <si>
+    <t>Villarreal B</t>
+  </si>
+  <si>
+    <t>Deportivo</t>
+  </si>
+  <si>
     <t>FC Cartagena</t>
   </si>
   <si>
+    <t>Racing</t>
+  </si>
+  <si>
+    <t>FC Andorra</t>
+  </si>
+  <si>
+    <t>Real Sporting</t>
+  </si>
+  <si>
+    <t>Tenerife</t>
+  </si>
+  <si>
+    <t>MirandÃ©s</t>
+  </si>
+  <si>
+    <t>LeganÃ©s</t>
+  </si>
+  <si>
+    <t>UD Ibiza</t>
+  </si>
+  <si>
+    <t>Huesca</t>
+  </si>
+  <si>
+    <t>Levante</t>
+  </si>
+  <si>
+    <t>CD Lugo</t>
+  </si>
+  <si>
+    <t>Real Zaragoza</t>
+  </si>
+  <si>
+    <t>Burgos</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Ponferradina</t>
+  </si>
+  <si>
     <t>Real Oviedo</t>
   </si>
   <si>
-    <t>CD Lugo</t>
-  </si>
-  <si>
-    <t>Eibar</t>
-  </si>
-  <si>
-    <t>LeganÃ©s</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Ponferradina</t>
-  </si>
-  <si>
-    <t>Levante</t>
-  </si>
-  <si>
-    <t>Tenerife</t>
-  </si>
-  <si>
-    <t>MirandÃ©s</t>
-  </si>
-  <si>
-    <t>Huesca</t>
+    <t>Albacete</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>Deportivo</t>
-  </si>
-  <si>
-    <t>UD Ibiza</t>
-  </si>
-  <si>
-    <t>FC Andorra</t>
-  </si>
-  <si>
-    <t>Real Sporting</t>
-  </si>
-  <si>
-    <t>Burgos</t>
-  </si>
-  <si>
-    <t>Albacete</t>
-  </si>
-  <si>
-    <t>Villarreal B</t>
-  </si>
-  <si>
-    <t>Racing</t>
-  </si>
-  <si>
     <t>MÃ¡laga</t>
-  </si>
-  <si>
-    <t>Real Zaragoza</t>
   </si>
   <si>
     <t>Position</t>
@@ -534,18 +534,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'FC Cartagena vs Real Oviedo'!$A$2</c:f>
+              <c:f>'Eibar vs Villarreal B'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FC Cartagena</c:v>
+                  <c:v>Eibar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'FC Cartagena vs Real Oviedo'!$B$1:$K$1</c:f>
+              <c:f>'Eibar vs Villarreal B'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -583,39 +583,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'FC Cartagena vs Real Oviedo'!$B$2:$K$2</c:f>
+              <c:f>'Eibar vs Villarreal B'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -626,18 +626,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'FC Cartagena vs Real Oviedo'!$A$3</c:f>
+              <c:f>'Eibar vs Villarreal B'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Real Oviedo</c:v>
+                  <c:v>Villarreal B</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'FC Cartagena vs Real Oviedo'!$B$1:$K$1</c:f>
+              <c:f>'Eibar vs Villarreal B'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -675,18 +675,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'FC Cartagena vs Real Oviedo'!$B$3:$K$3</c:f>
+              <c:f>'Eibar vs Villarreal B'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -698,16 +698,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -807,18 +807,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Villarreal B vs Racing'!$A$2</c:f>
+              <c:f>'Real Oviedo vs Albacete'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Villarreal B</c:v>
+                  <c:v>Real Oviedo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Villarreal B vs Racing'!$B$1:$K$1</c:f>
+              <c:f>'Real Oviedo vs Albacete'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -856,18 +856,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Villarreal B vs Racing'!$B$2:$K$2</c:f>
+              <c:f>'Real Oviedo vs Albacete'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -879,16 +879,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -899,18 +899,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Villarreal B vs Racing'!$A$3</c:f>
+              <c:f>'Real Oviedo vs Albacete'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Racing</c:v>
+                  <c:v>Albacete</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Villarreal B vs Racing'!$B$1:$K$1</c:f>
+              <c:f>'Real Oviedo vs Albacete'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -948,39 +948,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Villarreal B vs Racing'!$B$3:$K$3</c:f>
+              <c:f>'Real Oviedo vs Albacete'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1080,18 +1080,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MÃ¡laga vs Real Zaragoza'!$A$2</c:f>
+              <c:f>'Granada vs MÃ¡laga'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MÃ¡laga</c:v>
+                  <c:v>Granada</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'MÃ¡laga vs Real Zaragoza'!$B$1:$K$1</c:f>
+              <c:f>'Granada vs MÃ¡laga'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1129,39 +1129,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MÃ¡laga vs Real Zaragoza'!$B$2:$K$2</c:f>
+              <c:f>'Granada vs MÃ¡laga'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1172,18 +1172,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MÃ¡laga vs Real Zaragoza'!$A$3</c:f>
+              <c:f>'Granada vs MÃ¡laga'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Real Zaragoza</c:v>
+                  <c:v>MÃ¡laga</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'MÃ¡laga vs Real Zaragoza'!$B$1:$K$1</c:f>
+              <c:f>'Granada vs MÃ¡laga'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1221,39 +1221,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MÃ¡laga vs Real Zaragoza'!$B$3:$K$3</c:f>
+              <c:f>'Granada vs MÃ¡laga'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4918,18 +4918,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CD Lugo vs Eibar'!$A$2</c:f>
+              <c:f>'Deportivo vs FC Cartagena'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CD Lugo</c:v>
+                  <c:v>Deportivo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'CD Lugo vs Eibar'!$B$1:$K$1</c:f>
+              <c:f>'Deportivo vs FC Cartagena'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4967,39 +4967,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CD Lugo vs Eibar'!$B$2:$K$2</c:f>
+              <c:f>'Deportivo vs FC Cartagena'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5010,18 +5010,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CD Lugo vs Eibar'!$A$3</c:f>
+              <c:f>'Deportivo vs FC Cartagena'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Eibar</c:v>
+                  <c:v>FC Cartagena</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'CD Lugo vs Eibar'!$B$1:$K$1</c:f>
+              <c:f>'Deportivo vs FC Cartagena'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5059,39 +5059,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CD Lugo vs Eibar'!$B$3:$K$3</c:f>
+              <c:f>'Deportivo vs FC Cartagena'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5191,18 +5191,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'LeganÃ©s vs Las Palmas'!$A$2</c:f>
+              <c:f>'Racing vs FC Andorra'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LeganÃ©s</c:v>
+                  <c:v>Racing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'LeganÃ©s vs Las Palmas'!$B$1:$K$1</c:f>
+              <c:f>'Racing vs FC Andorra'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5240,15 +5240,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'LeganÃ©s vs Las Palmas'!$B$2:$K$2</c:f>
+              <c:f>'Racing vs FC Andorra'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -5257,22 +5257,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5283,18 +5283,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'LeganÃ©s vs Las Palmas'!$A$3</c:f>
+              <c:f>'Racing vs FC Andorra'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Las Palmas</c:v>
+                  <c:v>FC Andorra</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'LeganÃ©s vs Las Palmas'!$B$1:$K$1</c:f>
+              <c:f>'Racing vs FC Andorra'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5332,39 +5332,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'LeganÃ©s vs Las Palmas'!$B$3:$K$3</c:f>
+              <c:f>'Racing vs FC Andorra'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>15</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5464,18 +5464,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ponferradina vs Levante'!$A$2</c:f>
+              <c:f>'Real Sporting vs Tenerife'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ponferradina</c:v>
+                  <c:v>Real Sporting</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Ponferradina vs Levante'!$B$1:$K$1</c:f>
+              <c:f>'Real Sporting vs Tenerife'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5513,7 +5513,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ponferradina vs Levante'!$B$2:$K$2</c:f>
+              <c:f>'Real Sporting vs Tenerife'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5542,10 +5542,10 @@
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5556,18 +5556,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Ponferradina vs Levante'!$A$3</c:f>
+              <c:f>'Real Sporting vs Tenerife'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Levante</c:v>
+                  <c:v>Tenerife</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Ponferradina vs Levante'!$B$1:$K$1</c:f>
+              <c:f>'Real Sporting vs Tenerife'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5605,18 +5605,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Ponferradina vs Levante'!$B$3:$K$3</c:f>
+              <c:f>'Real Sporting vs Tenerife'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -5628,16 +5628,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5737,18 +5737,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tenerife vs MirandÃ©s'!$A$2</c:f>
+              <c:f>'MirandÃ©s vs LeganÃ©s'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tenerife</c:v>
+                  <c:v>MirandÃ©s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Tenerife vs MirandÃ©s'!$B$1:$K$1</c:f>
+              <c:f>'MirandÃ©s vs LeganÃ©s'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5786,7 +5786,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tenerife vs MirandÃ©s'!$B$2:$K$2</c:f>
+              <c:f>'MirandÃ©s vs LeganÃ©s'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5794,31 +5794,31 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5829,18 +5829,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tenerife vs MirandÃ©s'!$A$3</c:f>
+              <c:f>'MirandÃ©s vs LeganÃ©s'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MirandÃ©s</c:v>
+                  <c:v>LeganÃ©s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Tenerife vs MirandÃ©s'!$B$1:$K$1</c:f>
+              <c:f>'MirandÃ©s vs LeganÃ©s'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5878,7 +5878,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tenerife vs MirandÃ©s'!$B$3:$K$3</c:f>
+              <c:f>'MirandÃ©s vs LeganÃ©s'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5886,7 +5886,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -5895,22 +5895,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6010,18 +6010,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Huesca vs Granada'!$A$2</c:f>
+              <c:f>'UD Ibiza vs Huesca'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Huesca</c:v>
+                  <c:v>UD Ibiza</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Huesca vs Granada'!$B$1:$K$1</c:f>
+              <c:f>'UD Ibiza vs Huesca'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6059,39 +6059,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Huesca vs Granada'!$B$2:$K$2</c:f>
+              <c:f>'UD Ibiza vs Huesca'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6102,18 +6102,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Huesca vs Granada'!$A$3</c:f>
+              <c:f>'UD Ibiza vs Huesca'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Granada</c:v>
+                  <c:v>Huesca</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Huesca vs Granada'!$B$1:$K$1</c:f>
+              <c:f>'UD Ibiza vs Huesca'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6151,21 +6151,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Huesca vs Granada'!$B$3:$K$3</c:f>
+              <c:f>'UD Ibiza vs Huesca'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -6174,16 +6174,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6283,18 +6283,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Deportivo vs UD Ibiza'!$A$2</c:f>
+              <c:f>'Levante vs CD Lugo'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deportivo</c:v>
+                  <c:v>Levante</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Deportivo vs UD Ibiza'!$B$1:$K$1</c:f>
+              <c:f>'Levante vs CD Lugo'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6332,21 +6332,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deportivo vs UD Ibiza'!$B$2:$K$2</c:f>
+              <c:f>'Levante vs CD Lugo'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
@@ -6355,13 +6355,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -6375,18 +6375,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Deportivo vs UD Ibiza'!$A$3</c:f>
+              <c:f>'Levante vs CD Lugo'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>UD Ibiza</c:v>
+                  <c:v>CD Lugo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Deportivo vs UD Ibiza'!$B$1:$K$1</c:f>
+              <c:f>'Levante vs CD Lugo'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6424,30 +6424,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deportivo vs UD Ibiza'!$B$3:$K$3</c:f>
+              <c:f>'Levante vs CD Lugo'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.8</c:v>
@@ -6456,7 +6456,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6556,18 +6556,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'FC Andorra vs Real Sporting'!$A$2</c:f>
+              <c:f>'Real Zaragoza vs Burgos'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FC Andorra</c:v>
+                  <c:v>Real Zaragoza</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'FC Andorra vs Real Sporting'!$B$1:$K$1</c:f>
+              <c:f>'Real Zaragoza vs Burgos'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6605,15 +6605,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'FC Andorra vs Real Sporting'!$B$2:$K$2</c:f>
+              <c:f>'Real Zaragoza vs Burgos'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -6622,22 +6622,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6648,18 +6648,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'FC Andorra vs Real Sporting'!$A$3</c:f>
+              <c:f>'Real Zaragoza vs Burgos'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Real Sporting</c:v>
+                  <c:v>Burgos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'FC Andorra vs Real Sporting'!$B$1:$K$1</c:f>
+              <c:f>'Real Zaragoza vs Burgos'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6697,12 +6697,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'FC Andorra vs Real Sporting'!$B$3:$K$3</c:f>
+              <c:f>'Real Zaragoza vs Burgos'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
@@ -6720,16 +6720,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6829,18 +6829,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burgos vs Albacete'!$A$2</c:f>
+              <c:f>'Las Palmas vs Ponferradina'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Burgos</c:v>
+                  <c:v>Las Palmas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Burgos vs Albacete'!$B$1:$K$1</c:f>
+              <c:f>'Las Palmas vs Ponferradina'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6878,18 +6878,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burgos vs Albacete'!$B$2:$K$2</c:f>
+              <c:f>'Las Palmas vs Ponferradina'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -6901,16 +6901,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6921,18 +6921,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burgos vs Albacete'!$A$3</c:f>
+              <c:f>'Las Palmas vs Ponferradina'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Albacete</c:v>
+                  <c:v>Ponferradina</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Burgos vs Albacete'!$B$1:$K$1</c:f>
+              <c:f>'Las Palmas vs Ponferradina'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6970,39 +6970,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burgos vs Albacete'!$B$3:$K$3</c:f>
+              <c:f>'Las Palmas vs Ponferradina'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7842,34 +7842,34 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="I2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7877,13 +7877,13 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7895,16 +7895,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -7964,13 +7964,13 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7982,16 +7982,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="I2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7999,34 +7999,34 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="I3">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -8086,34 +8086,34 @@
         <v>31</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K2">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8121,34 +8121,34 @@
         <v>32</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="I3">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>4</v>
       </c>
       <c r="K3">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -8241,7 +8241,7 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -8309,7 +8309,7 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
@@ -8377,7 +8377,7 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -8445,7 +8445,7 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -8513,7 +8513,7 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>70</v>
@@ -8581,7 +8581,7 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>71</v>
@@ -8649,7 +8649,7 @@
         <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>72</v>
@@ -8717,7 +8717,7 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>73</v>
@@ -8785,7 +8785,7 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>
@@ -8853,7 +8853,7 @@
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>75</v>
@@ -8921,7 +8921,7 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>75</v>
@@ -8989,7 +8989,7 @@
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>76</v>
@@ -9057,7 +9057,7 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>77</v>
@@ -9125,7 +9125,7 @@
         <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>78</v>
@@ -9193,7 +9193,7 @@
         <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>79</v>
@@ -9261,7 +9261,7 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>79</v>
@@ -9329,7 +9329,7 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>79</v>
@@ -9397,7 +9397,7 @@
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>80</v>
@@ -9465,7 +9465,7 @@
         <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>81</v>
@@ -9533,7 +9533,7 @@
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>82</v>
@@ -9601,7 +9601,7 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>65</v>
@@ -9669,7 +9669,7 @@
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
         <v>62</v>
@@ -9789,34 +9789,34 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <v>3.2</v>
       </c>
       <c r="I2">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="J2">
+        <v>18</v>
+      </c>
+      <c r="K2">
         <v>0</v>
-      </c>
-      <c r="K2">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -9824,34 +9824,34 @@
         <v>14</v>
       </c>
       <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
         <v>3</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -9911,10 +9911,10 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -9923,22 +9923,22 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -9946,34 +9946,34 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
         <v>1</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -10057,10 +10057,10 @@
         <v>0.6</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -10068,13 +10068,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -10086,16 +10086,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="I3">
         <v>0.6</v>
       </c>
       <c r="J3">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10158,31 +10158,31 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0.8</v>
       </c>
       <c r="I2">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="J2">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -10193,7 +10193,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -10202,22 +10202,22 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0.8</v>
       </c>
       <c r="I3">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
         <v>11</v>
-      </c>
-      <c r="K3">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -10277,34 +10277,34 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="J2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -10312,16 +10312,16 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -10330,16 +10330,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="J3">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10399,16 +10399,16 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -10417,13 +10417,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="I2">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -10434,25 +10434,25 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I3">
         <v>1.8</v>
@@ -10461,7 +10461,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -10521,10 +10521,10 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -10533,22 +10533,22 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="J2">
         <v>4</v>
       </c>
       <c r="K2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -10556,7 +10556,7 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -10574,16 +10574,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I3">
         <v>0.6</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K3">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10643,13 +10643,13 @@
         <v>27</v>
       </c>
       <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>3</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="I2">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -10678,34 +10678,34 @@
         <v>28</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="I3">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Output Segunda Division.xlsx
+++ b/Output Segunda Division.xlsx
@@ -7,17 +7,17 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Eibar vs Villarreal B" sheetId="1" r:id="rId1"/>
-    <sheet name="Deportivo vs FC Cartagena" sheetId="2" r:id="rId2"/>
-    <sheet name="Racing vs FC Andorra" sheetId="3" r:id="rId3"/>
-    <sheet name="Real Sporting vs Tenerife" sheetId="4" r:id="rId4"/>
-    <sheet name="MirandÃ©s vs LeganÃ©s" sheetId="5" r:id="rId5"/>
-    <sheet name="UD Ibiza vs Huesca" sheetId="6" r:id="rId6"/>
-    <sheet name="Levante vs CD Lugo" sheetId="7" r:id="rId7"/>
-    <sheet name="Real Zaragoza vs Burgos" sheetId="8" r:id="rId8"/>
-    <sheet name="Las Palmas vs Ponferradina" sheetId="9" r:id="rId9"/>
-    <sheet name="Real Oviedo vs Albacete" sheetId="10" r:id="rId10"/>
-    <sheet name="Granada vs MÃ¡laga" sheetId="11" r:id="rId11"/>
+    <sheet name="Eibar vs Real Zaragoza" sheetId="1" r:id="rId1"/>
+    <sheet name="Villarreal B vs Albacete" sheetId="2" r:id="rId2"/>
+    <sheet name="FC Cartagena vs Real Sporting" sheetId="3" r:id="rId3"/>
+    <sheet name="Ponferradina vs FC Andorra" sheetId="4" r:id="rId4"/>
+    <sheet name="Las Palmas vs Levante" sheetId="5" r:id="rId5"/>
+    <sheet name="UD Ibiza vs Real Oviedo" sheetId="6" r:id="rId6"/>
+    <sheet name="CD Lugo vs MÃ¡laga" sheetId="7" r:id="rId7"/>
+    <sheet name="MirandÃ©s vs Burgos" sheetId="8" r:id="rId8"/>
+    <sheet name="Racing vs Granada" sheetId="9" r:id="rId9"/>
+    <sheet name="Deportivo vs LeganÃ©s" sheetId="10" r:id="rId10"/>
+    <sheet name="Huesca vs Tenerife" sheetId="11" r:id="rId11"/>
     <sheet name="Data Raw Segunda" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="150">
   <si>
     <t>Team</t>
   </si>
@@ -63,69 +63,69 @@
     <t>Eibar</t>
   </si>
   <si>
+    <t>Real Zaragoza</t>
+  </si>
+  <si>
     <t>Villarreal B</t>
   </si>
   <si>
+    <t>Albacete</t>
+  </si>
+  <si>
+    <t>FC Cartagena</t>
+  </si>
+  <si>
+    <t>Real Sporting</t>
+  </si>
+  <si>
+    <t>Ponferradina</t>
+  </si>
+  <si>
+    <t>FC Andorra</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Levante</t>
+  </si>
+  <si>
+    <t>UD Ibiza</t>
+  </si>
+  <si>
+    <t>Real Oviedo</t>
+  </si>
+  <si>
+    <t>CD Lugo</t>
+  </si>
+  <si>
+    <t>MÃ¡laga</t>
+  </si>
+  <si>
+    <t>MirandÃ©s</t>
+  </si>
+  <si>
+    <t>Burgos</t>
+  </si>
+  <si>
+    <t>Racing</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
     <t>Deportivo</t>
   </si>
   <si>
-    <t>FC Cartagena</t>
-  </si>
-  <si>
-    <t>Racing</t>
-  </si>
-  <si>
-    <t>FC Andorra</t>
-  </si>
-  <si>
-    <t>Real Sporting</t>
+    <t>LeganÃ©s</t>
+  </si>
+  <si>
+    <t>Huesca</t>
   </si>
   <si>
     <t>Tenerife</t>
   </si>
   <si>
-    <t>MirandÃ©s</t>
-  </si>
-  <si>
-    <t>LeganÃ©s</t>
-  </si>
-  <si>
-    <t>UD Ibiza</t>
-  </si>
-  <si>
-    <t>Huesca</t>
-  </si>
-  <si>
-    <t>Levante</t>
-  </si>
-  <si>
-    <t>CD Lugo</t>
-  </si>
-  <si>
-    <t>Real Zaragoza</t>
-  </si>
-  <si>
-    <t>Burgos</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Ponferradina</t>
-  </si>
-  <si>
-    <t>Real Oviedo</t>
-  </si>
-  <si>
-    <t>Albacete</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>MÃ¡laga</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
@@ -225,229 +225,256 @@
     <t>22</t>
   </si>
   <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
     <t>53</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>50</t>
   </si>
   <si>
     <t>48</t>
   </si>
   <si>
+    <t>47</t>
+  </si>
+  <si>
     <t>46</t>
   </si>
   <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>44</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>39</t>
+    <t>28</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>['MirandÃ©s', 'Huesca', 'CD Lugo']</t>
-  </si>
-  <si>
-    <t>['Racing', 'MirandÃ©s', 'Eibar', 'Real Zaragoza', 'UD Ibiza']</t>
-  </si>
-  <si>
-    <t>['Burgos', 'FC Cartagena', 'FC Andorra']</t>
-  </si>
-  <si>
-    <t>['Ponferradina', 'CD Lugo']</t>
-  </si>
-  <si>
-    <t>['UD Ibiza', 'FC Andorra', 'Villarreal B', 'Tenerife']</t>
-  </si>
-  <si>
-    <t>['FC Andorra', 'CD Lugo', 'MÃ¡laga']</t>
-  </si>
-  <si>
-    <t>['Real Oviedo']</t>
-  </si>
-  <si>
-    <t>['Eibar', 'Real Oviedo']</t>
+    <t>43</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>['MirandÃ©s']</t>
+  </si>
+  <si>
+    <t>['Albacete', 'Real Oviedo', 'Las Palmas']</t>
+  </si>
+  <si>
+    <t>['Albacete']</t>
+  </si>
+  <si>
+    <t>['Tenerife', 'Huesca']</t>
+  </si>
+  <si>
+    <t>['Racing']</t>
+  </si>
+  <si>
+    <t>['Eibar']</t>
+  </si>
+  <si>
+    <t>['CD Lugo', 'LeganÃ©s', 'MirandÃ©s']</t>
+  </si>
+  <si>
+    <t>['MÃ¡laga', 'Huesca']</t>
+  </si>
+  <si>
+    <t>['Granada', 'Racing']</t>
+  </si>
+  <si>
+    <t>['Las Palmas', 'UD Ibiza']</t>
+  </si>
+  <si>
+    <t>['Burgos']</t>
+  </si>
+  <si>
+    <t>['FC Cartagena']</t>
+  </si>
+  <si>
+    <t>['LeganÃ©s', 'Las Palmas', 'CD Lugo']</t>
+  </si>
+  <si>
+    <t>['Ponferradina', 'Villarreal B']</t>
+  </si>
+  <si>
+    <t>['Levante']</t>
+  </si>
+  <si>
+    <t>['Granada', 'UD Ibiza']</t>
+  </si>
+  <si>
+    <t>['LeganÃ©s', 'Villarreal B', 'FC Cartagena']</t>
+  </si>
+  <si>
+    <t>['Deportivo']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Real Sporting', 'Real Zaragoza']</t>
+  </si>
+  <si>
+    <t>['Tenerife', 'Real Oviedo', 'Granada']</t>
+  </si>
+  <si>
+    <t>['Ponferradina']</t>
+  </si>
+  <si>
+    <t>['Granada', 'Las Palmas', 'Racing']</t>
+  </si>
+  <si>
+    <t>['Villarreal B', 'MÃ¡laga']</t>
+  </si>
+  <si>
+    <t>['UD Ibiza', 'Huesca']</t>
+  </si>
+  <si>
+    <t>['Deportivo', 'FC Andorra']</t>
+  </si>
+  <si>
+    <t>['MÃ¡laga', 'LeganÃ©s']</t>
+  </si>
+  <si>
+    <t>['Granada']</t>
+  </si>
+  <si>
+    <t>['Real Oviedo', 'MÃ¡laga', 'FC Cartagena']</t>
+  </si>
+  <si>
+    <t>['Eibar', 'FC Cartagena']</t>
+  </si>
+  <si>
+    <t>['Levante', 'Burgos', 'Real Zaragoza']</t>
+  </si>
+  <si>
+    <t>['FC Andorra']</t>
+  </si>
+  <si>
+    <t>['LeganÃ©s']</t>
+  </si>
+  <si>
+    <t>['Real Sporting', 'Tenerife']</t>
+  </si>
+  <si>
+    <t>['FC Cartagena', 'Real Oviedo']</t>
+  </si>
+  <si>
+    <t>['FC Andorra', 'Real Oviedo', 'Levante']</t>
   </si>
   <si>
     <t>['Real Sporting']</t>
   </si>
   <si>
-    <t>['FC Cartagena', 'Albacete', 'MirandÃ©s']</t>
-  </si>
-  <si>
-    <t>['CD Lugo', 'Real Oviedo', 'Racing']</t>
-  </si>
-  <si>
-    <t>['MirandÃ©s']</t>
-  </si>
-  <si>
-    <t>['MÃ¡laga']</t>
+    <t>['FC Andorra', 'Real Sporting']</t>
+  </si>
+  <si>
+    <t>['MÃ¡laga', 'Real Zaragoza', 'Eibar']</t>
   </si>
   <si>
     <t>['Real Zaragoza']</t>
   </si>
   <si>
-    <t>['Villarreal B']</t>
-  </si>
-  <si>
-    <t>['FC Andorra']</t>
-  </si>
-  <si>
-    <t>['LeganÃ©s']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Deportivo', 'FC Cartagena']</t>
-  </si>
-  <si>
-    <t>['Tenerife']</t>
-  </si>
-  <si>
-    <t>['Levante']</t>
-  </si>
-  <si>
-    <t>['Tenerife', 'Levante']</t>
-  </si>
-  <si>
-    <t>['Racing']</t>
-  </si>
-  <si>
-    <t>['Granada']</t>
-  </si>
-  <si>
-    <t>['Granada', 'MirandÃ©s']</t>
-  </si>
-  <si>
-    <t>['Las Palmas']</t>
-  </si>
-  <si>
-    <t>['Albacete', 'Granada', 'Real Zaragoza', 'Levante']</t>
-  </si>
-  <si>
-    <t>['Villarreal B', 'Burgos', 'FC Cartagena']</t>
-  </si>
-  <si>
-    <t>['LeganÃ©s', 'FC Andorra']</t>
-  </si>
-  <si>
-    <t>['Las Palmas', 'Deportivo', 'Huesca', 'Tenerife']</t>
-  </si>
-  <si>
-    <t>['Real Sporting', 'Deportivo', 'MÃ¡laga']</t>
-  </si>
-  <si>
-    <t>['Deportivo', 'Villarreal B']</t>
-  </si>
-  <si>
-    <t>['Eibar']</t>
-  </si>
-  <si>
-    <t>['Real Oviedo', 'Albacete']</t>
-  </si>
-  <si>
-    <t>['Villarreal B', 'Albacete', 'Las Palmas', 'Eibar']</t>
-  </si>
-  <si>
-    <t>['Granada', 'Deportivo']</t>
-  </si>
-  <si>
-    <t>['Burgos', 'LeganÃ©s']</t>
-  </si>
-  <si>
-    <t>['LeganÃ©s', 'Ponferradina']</t>
-  </si>
-  <si>
-    <t>['Huesca']</t>
-  </si>
-  <si>
-    <t>['Burgos']</t>
-  </si>
-  <si>
-    <t>['MÃ¡laga', 'Las Palmas', 'Albacete']</t>
-  </si>
-  <si>
-    <t>['UD Ibiza']</t>
-  </si>
-  <si>
-    <t>['Levante', 'Eibar', 'Las Palmas']</t>
-  </si>
-  <si>
-    <t>['Real Oviedo', 'Real Sporting', 'Granada']</t>
-  </si>
-  <si>
-    <t>['MÃ¡laga', 'Huesca']</t>
-  </si>
-  <si>
-    <t>['Ponferradina']</t>
-  </si>
-  <si>
-    <t>['Tenerife', 'Ponferradina']</t>
-  </si>
-  <si>
-    <t>['Real Zaragoza', 'Racing', 'UD Ibiza', 'Levante']</t>
-  </si>
-  <si>
-    <t>['Burgos', 'Real Sporting']</t>
-  </si>
-  <si>
-    <t>['FC Cartagena', 'CD Lugo', 'Ponferradina']</t>
+    <t>['Real Sporting', 'Ponferradina']</t>
+  </si>
+  <si>
+    <t>['UD Ibiza', 'Eibar', 'Deportivo']</t>
+  </si>
+  <si>
+    <t>['Huesca', 'Albacete', 'Levante']</t>
+  </si>
+  <si>
+    <t>['Villarreal B', 'CD Lugo']</t>
+  </si>
+  <si>
+    <t>['Real Zaragoza', 'Villarreal B']</t>
+  </si>
+  <si>
+    <t>['Huesca', 'Tenerife']</t>
+  </si>
+  <si>
+    <t>['Ponferradina', 'UD Ibiza']</t>
+  </si>
+  <si>
+    <t>['Burgos', 'Las Palmas', 'Deportivo']</t>
+  </si>
+  <si>
+    <t>['CD Lugo']</t>
+  </si>
+  <si>
+    <t>['MirandÃ©s', 'CD Lugo', 'Burgos']</t>
+  </si>
+  <si>
+    <t>['FC Andorra', 'MirandÃ©s']</t>
+  </si>
+  <si>
+    <t>['Racing', 'Ponferradina', 'Tenerife']</t>
   </si>
 </sst>
 </file>
@@ -534,7 +561,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Eibar vs Villarreal B'!$A$2</c:f>
+              <c:f>'Eibar vs Real Zaragoza'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -545,7 +572,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Eibar vs Villarreal B'!$B$1:$K$1</c:f>
+              <c:f>'Eibar vs Real Zaragoza'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -583,18 +610,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Eibar vs Villarreal B'!$B$2:$K$2</c:f>
+              <c:f>'Eibar vs Real Zaragoza'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -606,16 +633,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -626,18 +653,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Eibar vs Villarreal B'!$A$3</c:f>
+              <c:f>'Eibar vs Real Zaragoza'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Villarreal B</c:v>
+                  <c:v>Real Zaragoza</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Eibar vs Villarreal B'!$B$1:$K$1</c:f>
+              <c:f>'Eibar vs Real Zaragoza'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -675,39 +702,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Eibar vs Villarreal B'!$B$3:$K$3</c:f>
+              <c:f>'Eibar vs Real Zaragoza'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -807,18 +834,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Real Oviedo vs Albacete'!$A$2</c:f>
+              <c:f>'Deportivo vs LeganÃ©s'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Real Oviedo</c:v>
+                  <c:v>Deportivo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Real Oviedo vs Albacete'!$B$1:$K$1</c:f>
+              <c:f>'Deportivo vs LeganÃ©s'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -856,15 +883,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Real Oviedo vs Albacete'!$B$2:$K$2</c:f>
+              <c:f>'Deportivo vs LeganÃ©s'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
@@ -873,22 +900,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -899,18 +926,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Real Oviedo vs Albacete'!$A$3</c:f>
+              <c:f>'Deportivo vs LeganÃ©s'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Albacete</c:v>
+                  <c:v>LeganÃ©s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Real Oviedo vs Albacete'!$B$1:$K$1</c:f>
+              <c:f>'Deportivo vs LeganÃ©s'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -948,39 +975,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Real Oviedo vs Albacete'!$B$3:$K$3</c:f>
+              <c:f>'Deportivo vs LeganÃ©s'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1080,18 +1107,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Granada vs MÃ¡laga'!$A$2</c:f>
+              <c:f>'Huesca vs Tenerife'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Granada</c:v>
+                  <c:v>Huesca</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Granada vs MÃ¡laga'!$B$1:$K$1</c:f>
+              <c:f>'Huesca vs Tenerife'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1129,21 +1156,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Granada vs MÃ¡laga'!$B$2:$K$2</c:f>
+              <c:f>'Huesca vs Tenerife'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
@@ -1152,16 +1179,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1172,18 +1199,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Granada vs MÃ¡laga'!$A$3</c:f>
+              <c:f>'Huesca vs Tenerife'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MÃ¡laga</c:v>
+                  <c:v>Tenerife</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Granada vs MÃ¡laga'!$B$1:$K$1</c:f>
+              <c:f>'Huesca vs Tenerife'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1221,39 +1248,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Granada vs MÃ¡laga'!$B$3:$K$3</c:f>
+              <c:f>'Huesca vs Tenerife'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,25 +1470,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1476,7 +1503,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3</c:v>
@@ -1485,7 +1512,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -1494,13 +1521,13 @@
                   <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1601,25 +1628,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1631,34 +1658,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1759,25 +1786,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1789,10 +1816,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2</c:v>
@@ -1801,22 +1828,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.6</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1917,25 +1944,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1947,34 +1974,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2075,64 +2102,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2233,25 +2260,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>36</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2266,31 +2293,31 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2391,25 +2418,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2421,34 +2448,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.6</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.6</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2549,25 +2576,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2579,13 +2606,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -2597,16 +2624,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2707,25 +2734,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2740,7 +2767,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2</c:v>
@@ -2758,13 +2785,13 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.8</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2865,64 +2892,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3023,25 +3050,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3053,34 +3080,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3181,25 +3208,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3211,13 +3238,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -3229,16 +3256,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3339,43 +3366,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -3387,16 +3414,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>33</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3497,64 +3524,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3655,25 +3682,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3685,10 +3712,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
@@ -3697,22 +3724,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.4</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.6</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3813,25 +3840,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3843,10 +3870,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2</c:v>
@@ -3858,19 +3885,19 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.8</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3971,25 +3998,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4001,34 +4028,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4129,64 +4156,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4287,25 +4314,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4317,13 +4344,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -4335,16 +4362,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.4</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.6</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4445,25 +4472,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4475,34 +4502,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4603,64 +4630,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4761,25 +4788,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4791,34 +4818,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.8</c:v>
-                </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4918,18 +4945,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Deportivo vs FC Cartagena'!$A$2</c:f>
+              <c:f>'Villarreal B vs Albacete'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deportivo</c:v>
+                  <c:v>Villarreal B</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Deportivo vs FC Cartagena'!$B$1:$K$1</c:f>
+              <c:f>'Villarreal B vs Albacete'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -4967,21 +4994,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deportivo vs FC Cartagena'!$B$2:$K$2</c:f>
+              <c:f>'Villarreal B vs Albacete'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
@@ -4990,16 +5017,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5010,18 +5037,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Deportivo vs FC Cartagena'!$A$3</c:f>
+              <c:f>'Villarreal B vs Albacete'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FC Cartagena</c:v>
+                  <c:v>Albacete</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Deportivo vs FC Cartagena'!$B$1:$K$1</c:f>
+              <c:f>'Villarreal B vs Albacete'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5059,39 +5086,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Deportivo vs FC Cartagena'!$B$3:$K$3</c:f>
+              <c:f>'Villarreal B vs Albacete'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5191,18 +5218,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Racing vs FC Andorra'!$A$2</c:f>
+              <c:f>'FC Cartagena vs Real Sporting'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Racing</c:v>
+                  <c:v>FC Cartagena</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Racing vs FC Andorra'!$B$1:$K$1</c:f>
+              <c:f>'FC Cartagena vs Real Sporting'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5240,39 +5267,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Racing vs FC Andorra'!$B$2:$K$2</c:f>
+              <c:f>'FC Cartagena vs Real Sporting'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5283,18 +5310,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Racing vs FC Andorra'!$A$3</c:f>
+              <c:f>'FC Cartagena vs Real Sporting'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FC Andorra</c:v>
+                  <c:v>Real Sporting</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Racing vs FC Andorra'!$B$1:$K$1</c:f>
+              <c:f>'FC Cartagena vs Real Sporting'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5332,39 +5359,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Racing vs FC Andorra'!$B$3:$K$3</c:f>
+              <c:f>'FC Cartagena vs Real Sporting'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.2</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5464,18 +5491,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Real Sporting vs Tenerife'!$A$2</c:f>
+              <c:f>'Ponferradina vs FC Andorra'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Real Sporting</c:v>
+                  <c:v>Ponferradina</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Real Sporting vs Tenerife'!$B$1:$K$1</c:f>
+              <c:f>'Ponferradina vs FC Andorra'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5513,39 +5540,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Real Sporting vs Tenerife'!$B$2:$K$2</c:f>
+              <c:f>'Ponferradina vs FC Andorra'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5556,18 +5583,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Real Sporting vs Tenerife'!$A$3</c:f>
+              <c:f>'Ponferradina vs FC Andorra'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tenerife</c:v>
+                  <c:v>FC Andorra</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Real Sporting vs Tenerife'!$B$1:$K$1</c:f>
+              <c:f>'Ponferradina vs FC Andorra'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5605,7 +5632,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Real Sporting vs Tenerife'!$B$3:$K$3</c:f>
+              <c:f>'Ponferradina vs FC Andorra'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5613,10 +5640,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -5631,13 +5658,13 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5737,18 +5764,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MirandÃ©s vs LeganÃ©s'!$A$2</c:f>
+              <c:f>'Las Palmas vs Levante'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MirandÃ©s</c:v>
+                  <c:v>Las Palmas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'MirandÃ©s vs LeganÃ©s'!$B$1:$K$1</c:f>
+              <c:f>'Las Palmas vs Levante'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5786,15 +5813,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MirandÃ©s vs LeganÃ©s'!$B$2:$K$2</c:f>
+              <c:f>'Las Palmas vs Levante'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -5803,22 +5830,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5829,18 +5856,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'MirandÃ©s vs LeganÃ©s'!$A$3</c:f>
+              <c:f>'Las Palmas vs Levante'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LeganÃ©s</c:v>
+                  <c:v>Levante</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'MirandÃ©s vs LeganÃ©s'!$B$1:$K$1</c:f>
+              <c:f>'Las Palmas vs Levante'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -5878,7 +5905,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'MirandÃ©s vs LeganÃ©s'!$B$3:$K$3</c:f>
+              <c:f>'Las Palmas vs Levante'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -5889,7 +5916,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -5907,10 +5934,10 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6010,7 +6037,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'UD Ibiza vs Huesca'!$A$2</c:f>
+              <c:f>'UD Ibiza vs Real Oviedo'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6021,7 +6048,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'UD Ibiza vs Huesca'!$B$1:$K$1</c:f>
+              <c:f>'UD Ibiza vs Real Oviedo'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6059,15 +6086,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'UD Ibiza vs Huesca'!$B$2:$K$2</c:f>
+              <c:f>'UD Ibiza vs Real Oviedo'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
@@ -6082,16 +6109,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8</c:v>
+                  <c:v>2.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6102,18 +6129,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'UD Ibiza vs Huesca'!$A$3</c:f>
+              <c:f>'UD Ibiza vs Real Oviedo'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Huesca</c:v>
+                  <c:v>Real Oviedo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'UD Ibiza vs Huesca'!$B$1:$K$1</c:f>
+              <c:f>'UD Ibiza vs Real Oviedo'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6151,18 +6178,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'UD Ibiza vs Huesca'!$B$3:$K$3</c:f>
+              <c:f>'UD Ibiza vs Real Oviedo'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -6174,16 +6201,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6283,18 +6310,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Levante vs CD Lugo'!$A$2</c:f>
+              <c:f>'CD Lugo vs MÃ¡laga'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Levante</c:v>
+                  <c:v>CD Lugo</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Levante vs CD Lugo'!$B$1:$K$1</c:f>
+              <c:f>'CD Lugo vs MÃ¡laga'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6332,18 +6359,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Levante vs CD Lugo'!$B$2:$K$2</c:f>
+              <c:f>'CD Lugo vs MÃ¡laga'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -6355,16 +6382,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6375,18 +6402,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Levante vs CD Lugo'!$A$3</c:f>
+              <c:f>'CD Lugo vs MÃ¡laga'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CD Lugo</c:v>
+                  <c:v>MÃ¡laga</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Levante vs CD Lugo'!$B$1:$K$1</c:f>
+              <c:f>'CD Lugo vs MÃ¡laga'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6424,39 +6451,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Levante vs CD Lugo'!$B$3:$K$3</c:f>
+              <c:f>'CD Lugo vs MÃ¡laga'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.2</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6556,18 +6583,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Real Zaragoza vs Burgos'!$A$2</c:f>
+              <c:f>'MirandÃ©s vs Burgos'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Real Zaragoza</c:v>
+                  <c:v>MirandÃ©s</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Real Zaragoza vs Burgos'!$B$1:$K$1</c:f>
+              <c:f>'MirandÃ©s vs Burgos'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6605,39 +6632,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Real Zaragoza vs Burgos'!$B$2:$K$2</c:f>
+              <c:f>'MirandÃ©s vs Burgos'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6648,7 +6675,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Real Zaragoza vs Burgos'!$A$3</c:f>
+              <c:f>'MirandÃ©s vs Burgos'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6659,7 +6686,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Real Zaragoza vs Burgos'!$B$1:$K$1</c:f>
+              <c:f>'MirandÃ©s vs Burgos'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6697,39 +6724,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Real Zaragoza vs Burgos'!$B$3:$K$3</c:f>
+              <c:f>'MirandÃ©s vs Burgos'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6829,18 +6856,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Las Palmas vs Ponferradina'!$A$2</c:f>
+              <c:f>'Racing vs Granada'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Las Palmas</c:v>
+                  <c:v>Racing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Las Palmas vs Ponferradina'!$B$1:$K$1</c:f>
+              <c:f>'Racing vs Granada'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6878,39 +6905,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Las Palmas vs Ponferradina'!$B$2:$K$2</c:f>
+              <c:f>'Racing vs Granada'!$B$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6921,18 +6948,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Las Palmas vs Ponferradina'!$A$3</c:f>
+              <c:f>'Racing vs Granada'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ponferradina</c:v>
+                  <c:v>Granada</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Las Palmas vs Ponferradina'!$B$1:$K$1</c:f>
+              <c:f>'Racing vs Granada'!$B$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -6970,18 +6997,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Las Palmas vs Ponferradina'!$B$3:$K$3</c:f>
+              <c:f>'Racing vs Granada'!$B$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -6993,16 +7020,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7842,13 +7869,13 @@
         <v>11</v>
       </c>
       <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
         <v>3</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7860,16 +7887,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7877,34 +7904,34 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="I3">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7964,10 +7991,10 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -7976,22 +8003,22 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7999,34 +8026,34 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="I3">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -8086,16 +8113,16 @@
         <v>31</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -8104,16 +8131,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8121,34 +8148,34 @@
         <v>32</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -8241,43 +8268,43 @@
         <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="M2">
         <v>6</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O2">
         <v>3</v>
@@ -8286,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -8295,13 +8322,13 @@
         <v>1.2</v>
       </c>
       <c r="T2">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="U2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -8309,67 +8336,67 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L3" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M3">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="N3">
         <v>4</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="T3">
         <v>0.8</v>
       </c>
       <c r="U3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -8377,43 +8404,43 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O4">
         <v>2</v>
@@ -8422,22 +8449,22 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="U4">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -8445,67 +8472,67 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
         <v>51</v>
       </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
       <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" t="s">
         <v>80</v>
       </c>
-      <c r="I5" t="s">
-        <v>88</v>
-      </c>
       <c r="J5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K5" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L5" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="V5">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -8513,67 +8540,67 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
         <v>83</v>
       </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" t="s">
-        <v>77</v>
-      </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L6" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="M6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
         <v>1</v>
       </c>
-      <c r="O6">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>2</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="T6">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="U6">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -8581,67 +8608,67 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="M7">
         <v>7</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O7">
         <v>3</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
         <v>1.4</v>
       </c>
       <c r="T7">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="U7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -8649,67 +8676,67 @@
         <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K8" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
         <v>3</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="T8">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="U8">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -8717,46 +8744,46 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
         <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -8768,16 +8795,16 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="U9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -8785,43 +8812,43 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M10">
         <v>4</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O10">
         <v>2</v>
@@ -8839,13 +8866,13 @@
         <v>0.8</v>
       </c>
       <c r="T10">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="U10">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="V10">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -8853,67 +8880,67 @@
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11">
         <v>4</v>
       </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
       <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11">
         <v>1</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
+        <v>1.6</v>
+      </c>
+      <c r="T11">
         <v>0.8</v>
       </c>
-      <c r="T11">
-        <v>0.6</v>
-      </c>
       <c r="U11">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -8921,67 +8948,67 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K12" t="s">
         <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="M12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="U12">
         <v>10</v>
       </c>
       <c r="V12">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -8989,46 +9016,46 @@
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J13" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K13" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13">
         <v>4</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -9040,16 +9067,16 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="T13">
         <v>0.8</v>
       </c>
       <c r="U13">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -9057,46 +9084,46 @@
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
         <v>53</v>
       </c>
-      <c r="F14" t="s">
-        <v>48</v>
-      </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J14" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N14">
+        <v>6</v>
+      </c>
+      <c r="O14">
         <v>5</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -9108,16 +9135,16 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="U14">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="V14">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -9125,67 +9152,67 @@
         <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
         <v>78</v>
       </c>
-      <c r="D15" t="s">
-        <v>83</v>
-      </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" t="s">
+        <v>125</v>
+      </c>
+      <c r="L15" t="s">
         <v>103</v>
       </c>
-      <c r="K15" t="s">
-        <v>118</v>
-      </c>
-      <c r="L15" t="s">
-        <v>129</v>
-      </c>
       <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
         <v>3</v>
       </c>
-      <c r="N15">
-        <v>5</v>
-      </c>
       <c r="O15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
         <v>0.6</v>
       </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
       <c r="U15">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="V15">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -9193,43 +9220,43 @@
         <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K16" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="L16" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O16">
         <v>1</v>
@@ -9238,22 +9265,22 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="T16">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="U16">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="V16">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -9261,43 +9288,43 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K17" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="L17" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O17">
         <v>2</v>
@@ -9309,19 +9336,19 @@
         <v>3</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="T17">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="U17">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="V17">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -9329,67 +9356,67 @@
         <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G18" t="s">
         <v>54</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L18" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
         <v>2</v>
       </c>
-      <c r="N18">
-        <v>8</v>
-      </c>
       <c r="O18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
         <v>0.4</v>
       </c>
-      <c r="T18">
-        <v>1.6</v>
-      </c>
       <c r="U18">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="V18">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -9397,67 +9424,67 @@
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="L19" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R19">
         <v>1</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="T19">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="U19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V19">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -9465,46 +9492,46 @@
         <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" t="s">
         <v>83</v>
       </c>
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" t="s">
-        <v>85</v>
-      </c>
-      <c r="I20" t="s">
-        <v>79</v>
-      </c>
       <c r="J20" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K20" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L20" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
         <v>2</v>
       </c>
-      <c r="N20">
-        <v>3</v>
-      </c>
       <c r="O20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -9516,16 +9543,16 @@
         <v>0</v>
       </c>
       <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
         <v>0.4</v>
       </c>
-      <c r="T20">
-        <v>0.6</v>
-      </c>
       <c r="U20">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="V20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -9533,67 +9560,67 @@
         <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="J21" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="K21" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L21" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="M21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="U21">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="V21">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -9601,67 +9628,67 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J22" t="s">
         <v>108</v>
       </c>
       <c r="K22" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L22" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="T22">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V22">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -9669,67 +9696,67 @@
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s">
         <v>62</v>
       </c>
-      <c r="D23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" t="s">
-        <v>60</v>
-      </c>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K23" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
         <v>5</v>
       </c>
-      <c r="N23">
-        <v>9</v>
-      </c>
       <c r="O23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23">
+        <v>0.4</v>
+      </c>
+      <c r="T23">
         <v>1</v>
-      </c>
-      <c r="T23">
-        <v>1.8</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -9789,16 +9816,16 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -9807,16 +9834,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="I2">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -9824,34 +9851,34 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1.4</v>
+      </c>
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1.6</v>
-      </c>
-      <c r="I3">
-        <v>1.2</v>
-      </c>
       <c r="J3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -9911,34 +9938,34 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="I2">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -9946,34 +9973,34 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10033,34 +10060,34 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I2">
         <v>0.6</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K2">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -10071,10 +10098,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -10089,13 +10116,13 @@
         <v>0.8</v>
       </c>
       <c r="I3">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="J3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10155,10 +10182,10 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -10167,22 +10194,22 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -10196,7 +10223,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -10214,10 +10241,10 @@
         <v>0.8</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K3">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -10277,10 +10304,10 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -10295,16 +10322,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="I2">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -10312,13 +10339,13 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -10330,16 +10357,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -10399,13 +10426,13 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -10417,16 +10444,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="I2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>13</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -10434,34 +10461,34 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K3">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10521,34 +10548,34 @@
         <v>25</v>
       </c>
       <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
         <v>2</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="I2">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -10556,34 +10583,34 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="J3">
         <v>6</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -10643,34 +10670,34 @@
         <v>27</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -10678,13 +10705,13 @@
         <v>28</v>
       </c>
       <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
         <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -10696,16 +10723,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
